--- a/static/Media/SampleExcels/classteacher.xlsx
+++ b/static/Media/SampleExcels/classteacher.xlsx
@@ -24,18 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>school_code</t>
-  </si>
-  <si>
-    <t>classid</t>
-  </si>
-  <si>
-    <t>teacherid</t>
-  </si>
-  <si>
-    <t>academic_year_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>ClassTeacherName</t>
+  </si>
+  <si>
+    <t>AcademicYear</t>
+  </si>
+  <si>
+    <t>sushma</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>2024-07-22 to 2024-07-22</t>
   </si>
 </sst>
 </file>
@@ -369,46 +375,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" activeCellId="2" sqref="C2 D9 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
